--- a/models/scaffold-test/source/scaffold-test.xlsx
+++ b/models/scaffold-test/source/scaffold-test.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="neurons" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="references" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="876">
   <si>
     <t>id</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Keast Bladder Model Scaffold Test</t>
   </si>
   <si>
-    <t>external</t>
+    <t>ontologyTerms</t>
   </si>
   <si>
     <t>subtypes</t>
@@ -1505,9 +1505,6 @@
     <t>FMA:85815</t>
   </si>
   <si>
-    <t>KM_2, KM_13, KM_14, KM_15, KM_16, KM_17, KM_18, KM_19, KM_20, KM_21</t>
-  </si>
-  <si>
     <t>KM_9</t>
   </si>
   <si>
@@ -1856,7 +1853,7 @@
     <t>conveyingLyph</t>
   </si>
   <si>
-    <t>publications</t>
+    <t>references</t>
   </si>
   <si>
     <t>lnk-snl16</t>
@@ -2570,7 +2567,7 @@
     <t>soma</t>
   </si>
   <si>
-    <t>housing lyph or external id</t>
+    <t>housing lyph or ontologyTerms id</t>
   </si>
   <si>
     <t>axon</t>
@@ -2688,7 +2685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2728,9 +2725,6 @@
     </font>
     <font>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -2878,7 +2872,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2892,6 +2886,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2900,9 +2897,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3041,9 +3035,6 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -3074,10 +3065,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3111,71 +3102,71 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3268,7 +3259,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3283,31 +3274,31 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3603,98 +3594,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="140" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="141" t="s">
+      <c r="B2" s="141" t="s">
         <v>855</v>
       </c>
-      <c r="B2" s="142" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="140" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="141" t="s">
+      <c r="B3" s="142" t="s">
         <v>857</v>
       </c>
-      <c r="B3" s="143" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="140" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="141" t="s">
+      <c r="B4" s="143" t="s">
         <v>859</v>
       </c>
-      <c r="B4" s="144" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="140" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="141" t="s">
+      <c r="B5" s="143" t="s">
         <v>861</v>
       </c>
-      <c r="B5" s="144" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="140" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="141" t="s">
+      <c r="B6" s="143" t="s">
         <v>863</v>
       </c>
-      <c r="B6" s="144" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="140" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="141" t="s">
+      <c r="B7" s="143" t="s">
         <v>865</v>
       </c>
-      <c r="B7" s="144" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="140" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="141" t="s">
+      <c r="B8" s="143" t="s">
         <v>867</v>
       </c>
-      <c r="B8" s="144" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="140" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="141" t="s">
+      <c r="B9" s="143" t="s">
         <v>869</v>
       </c>
-      <c r="B9" s="144" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="140" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="141" t="s">
+      <c r="B10" s="143" t="s">
         <v>871</v>
       </c>
-      <c r="B10" s="144" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="140" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="141" t="s">
+      <c r="B11" s="143" t="s">
         <v>873</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B12" s="137" t="s">
         <v>875</v>
-      </c>
-      <c r="B12" s="138" t="s">
-        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -3750,37 +3741,37 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="8" t="s">
@@ -8724,7 +8715,7 @@
       <c r="O144" s="13"/>
       <c r="P144" s="13"/>
       <c r="Q144" s="13"/>
-      <c r="R144" s="54" t="s">
+      <c r="R144" s="12" t="s">
         <v>440</v>
       </c>
       <c r="S144" s="13"/>
@@ -8751,8 +8742,8 @@
       <c r="I145" s="17"/>
       <c r="J145" s="11"/>
       <c r="K145" s="13"/>
-      <c r="L145" s="55"/>
-      <c r="M145" s="55" t="s">
+      <c r="L145" s="54"/>
+      <c r="M145" s="54" t="s">
         <v>444</v>
       </c>
       <c r="N145" s="20" t="s">
@@ -8761,7 +8752,7 @@
       <c r="O145" s="13"/>
       <c r="P145" s="13"/>
       <c r="Q145" s="13"/>
-      <c r="R145" s="54" t="s">
+      <c r="R145" s="12" t="s">
         <v>440</v>
       </c>
       <c r="S145" s="13"/>
@@ -8788,13 +8779,13 @@
       <c r="I146" s="17"/>
       <c r="J146" s="11"/>
       <c r="K146" s="13"/>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
       <c r="N146" s="16"/>
       <c r="O146" s="13"/>
       <c r="P146" s="13"/>
       <c r="Q146" s="13"/>
-      <c r="R146" s="54" t="s">
+      <c r="R146" s="12" t="s">
         <v>440</v>
       </c>
       <c r="S146" s="13"/>
@@ -8821,7 +8812,7 @@
       <c r="I147" s="17"/>
       <c r="J147" s="11"/>
       <c r="K147" s="13"/>
-      <c r="L147" s="56"/>
+      <c r="L147" s="55"/>
       <c r="M147" s="31"/>
       <c r="N147" s="20"/>
       <c r="O147" s="13"/>
@@ -8852,8 +8843,8 @@
       <c r="I148" s="17"/>
       <c r="J148" s="11"/>
       <c r="K148" s="13"/>
-      <c r="L148" s="57"/>
-      <c r="M148" s="57"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
       <c r="N148" s="20"/>
       <c r="O148" s="13"/>
       <c r="P148" s="13"/>
@@ -8883,8 +8874,8 @@
       <c r="I149" s="17"/>
       <c r="J149" s="11"/>
       <c r="K149" s="13"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="57"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
       <c r="N149" s="20"/>
       <c r="O149" s="13"/>
       <c r="P149" s="13"/>
@@ -8914,8 +8905,8 @@
       <c r="I150" s="17"/>
       <c r="J150" s="11"/>
       <c r="K150" s="13"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="57"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
       <c r="N150" s="20"/>
       <c r="O150" s="13"/>
       <c r="P150" s="13"/>
@@ -8928,22 +8919,22 @@
       <c r="W150" s="13"/>
     </row>
     <row r="151">
-      <c r="A151" s="58" t="s">
+      <c r="A151" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="B151" s="59" t="s">
+      <c r="B151" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="C151" s="60" t="s">
+      <c r="C151" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D151" s="61"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="62"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="59"/>
       <c r="K151" s="16"/>
       <c r="L151" s="16"/>
       <c r="M151" s="20" t="s">
@@ -8981,1108 +8972,1110 @@
     <col customWidth="1" min="3" max="3" width="26.29"/>
     <col customWidth="1" min="4" max="4" width="28.86"/>
     <col customWidth="1" min="5" max="7" width="71.14"/>
+    <col customWidth="1" min="8" max="8" width="41.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
     </row>
     <row r="2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>466</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
     </row>
     <row r="6">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>475</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
     </row>
     <row r="7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>476</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
     </row>
     <row r="8">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>480</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
     </row>
     <row r="9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>479</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="str">
+        <f>TEXTJOIN(", ",true,A3,A13:A21)</f>
+        <v>KM_2, KM_13, KM_14, KM_15, KM_16, KM_17, KM_18, KM_19, KM_20, KM_21</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="68" t="s">
+      <c r="B10" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="D10" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="67" t="s">
         <v>487</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="68" t="s">
+      <c r="B11" s="68" t="s">
         <v>488</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="68" t="s">
+      <c r="B12" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="67" t="s">
         <v>493</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="68" t="s">
+      <c r="B13" s="74" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="C13" s="72" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="68" t="s">
+      <c r="B14" s="74" t="s">
         <v>497</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="C14" s="72" t="s">
         <v>498</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="68" t="s">
+      <c r="B15" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="C15" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="68" t="s">
+      <c r="B16" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="C16" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="68" t="s">
+      <c r="B17" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="C17" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="68" t="s">
+      <c r="B18" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="C18" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="68" t="s">
+      <c r="B19" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="C19" s="72" t="s">
         <v>513</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="67" t="s">
         <v>514</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="68" t="s">
+      <c r="B20" s="74" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="C20" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="67" t="s">
         <v>516</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>483</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="68" t="s">
+      <c r="B21" s="76" t="s">
         <v>517</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="C21" s="75" t="s">
         <v>518</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="67" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="68" t="s">
+      <c r="B22" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="C22" s="77" t="s">
         <v>521</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="D22" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="B23" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>527</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>529</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="68" t="s">
-        <v>523</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>524</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="68" t="s">
-        <v>526</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>527</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="68" t="s">
-        <v>529</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>530</v>
-      </c>
-      <c r="C25" s="80" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="67" t="s">
         <v>531</v>
       </c>
-      <c r="D25" s="73" t="s">
-        <v>473</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="68" t="s">
+      <c r="B26" s="72" t="s">
         <v>532</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="C26" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="D26" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="67" t="s">
         <v>534</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>491</v>
-      </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="68" t="s">
+      <c r="B27" s="72" t="s">
         <v>535</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="C27" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="72" t="s">
         <v>537</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="67"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="C28" s="73" t="s">
-        <v>539</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B29" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="C29" s="81" t="s">
         <v>541</v>
       </c>
-      <c r="C29" s="82" t="s">
-        <v>542</v>
-      </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="81"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="I29" s="81" t="s">
         <v>543</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>544</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -10090,7 +10083,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="82"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13" t="s">
         <v>141</v>
@@ -10110,22 +10103,22 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B30" s="80" t="s">
         <v>545</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="C30" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>547</v>
-      </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="81"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="I30" s="82" t="s">
         <v>548</v>
-      </c>
-      <c r="I30" s="83" t="s">
-        <v>549</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -10133,7 +10126,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="82"/>
+      <c r="P30" s="81"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13" t="s">
         <v>141</v>
@@ -10153,22 +10146,22 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="C31" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="C31" s="82" t="s">
-        <v>552</v>
-      </c>
-      <c r="D31" s="82"/>
+      <c r="D31" s="81"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>553</v>
+      <c r="H31" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>552</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -10176,7 +10169,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="82"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13" t="s">
         <v>141</v>
@@ -10196,22 +10189,22 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B32" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="C32" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="C32" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="D32" s="82"/>
+      <c r="D32" s="81"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="82" t="s">
-        <v>555</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>557</v>
+      <c r="H32" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="81" t="s">
+        <v>556</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -10219,7 +10212,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="82"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13" t="s">
         <v>141</v>
@@ -10239,22 +10232,22 @@
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="C33" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>560</v>
-      </c>
-      <c r="D33" s="82"/>
+      <c r="D33" s="81"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>561</v>
+      <c r="H33" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>560</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -10262,7 +10255,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="82"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13" t="s">
         <v>141</v>
@@ -10282,22 +10275,22 @@
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B34" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="C34" s="81" t="s">
         <v>563</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>564</v>
-      </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="81"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>561</v>
+      <c r="H34" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="I34" s="81" t="s">
+        <v>560</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -10305,7 +10298,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="82"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13" t="s">
         <v>141</v>
@@ -10325,22 +10318,22 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B35" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="C35" s="81" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="D35" s="82"/>
+      <c r="D35" s="81"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="82" t="s">
-        <v>563</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>568</v>
+      <c r="H35" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="I35" s="81" t="s">
+        <v>567</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -10348,7 +10341,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="82"/>
+      <c r="P35" s="81"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13" t="s">
         <v>141</v>
@@ -10368,22 +10361,22 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B36" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="C36" s="81" t="s">
         <v>570</v>
       </c>
-      <c r="C36" s="82" t="s">
-        <v>571</v>
-      </c>
-      <c r="D36" s="82"/>
+      <c r="D36" s="81"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="82" t="s">
-        <v>570</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>572</v>
+      <c r="H36" s="81" t="s">
+        <v>569</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>571</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -10391,7 +10384,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="82"/>
+      <c r="P36" s="81"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13" t="s">
         <v>141</v>
@@ -10411,22 +10404,22 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B37" s="80" t="s">
         <v>573</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="C37" s="81" t="s">
         <v>574</v>
       </c>
-      <c r="C37" s="82" t="s">
-        <v>575</v>
-      </c>
-      <c r="D37" s="82"/>
+      <c r="D37" s="81"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="82" t="s">
-        <v>574</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>576</v>
+      <c r="H37" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>575</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -10434,7 +10427,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="82"/>
+      <c r="P37" s="81"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13" t="s">
         <v>141</v>
@@ -10454,22 +10447,22 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B38" s="80" t="s">
         <v>577</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="C38" s="81" t="s">
         <v>578</v>
       </c>
-      <c r="C38" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="D38" s="82"/>
+      <c r="D38" s="81"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="82" t="s">
+      <c r="H38" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="I38" s="81" t="s">
         <v>580</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>581</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -10477,7 +10470,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="82"/>
+      <c r="P38" s="81"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13" t="s">
         <v>141</v>
@@ -10496,270 +10489,270 @@
       <c r="AD38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="84">
+      <c r="A39" s="83">
         <v>54.0</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="C39" s="85" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="83">
+        <v>55.0</v>
+      </c>
+      <c r="B40" s="84" t="s">
         <v>583</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="B40" s="85" t="s">
+      <c r="C40" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="D40" s="78"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="83">
+        <v>56.0</v>
+      </c>
+      <c r="B41" s="84" t="s">
         <v>585</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="84">
-        <v>56.0</v>
-      </c>
-      <c r="B41" s="85" t="s">
+      <c r="C41" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="D41" s="86"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="83">
+        <v>116.0</v>
+      </c>
+      <c r="B42" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="87" t="s">
         <v>587</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="84">
-        <v>116.0</v>
-      </c>
-      <c r="B42" s="85" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="88" t="s">
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="88" t="s">
         <v>588</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="67"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="89" t="s">
+      <c r="B43" s="89" t="s">
         <v>589</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="C43" s="87" t="s">
         <v>590</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="88" t="s">
         <v>591</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="89" t="s">
+      <c r="B44" s="89" t="s">
         <v>592</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="C44" s="87" t="s">
         <v>593</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="89" t="s">
+      <c r="B45" s="89" t="s">
         <v>595</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="C45" s="90" t="s">
         <v>596</v>
       </c>
-      <c r="C45" s="91" t="s">
-        <v>597</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="67"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10785,26 +10778,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>599</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="92" t="s">
         <v>600</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>601</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -10828,16 +10821,16 @@
     </row>
     <row r="2">
       <c r="A2" s="93" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="C2" s="94" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="D2" s="94" t="s">
         <v>604</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>605</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>366</v>
@@ -10868,16 +10861,16 @@
     </row>
     <row r="3">
       <c r="A3" s="93" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="C3" s="94" t="s">
         <v>607</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="94" t="s">
         <v>608</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>609</v>
       </c>
       <c r="E3" s="94" t="s">
         <v>369</v>
@@ -10908,16 +10901,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>612</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>613</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>354</v>
@@ -10948,16 +10941,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>616</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>361</v>
@@ -10988,16 +10981,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>620</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>621</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>427</v>
@@ -11028,16 +11021,16 @@
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>623</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>624</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>451</v>
@@ -11068,16 +11061,16 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>626</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>627</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>453</v>
@@ -11108,16 +11101,16 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>630</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>631</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>411</v>
@@ -11148,16 +11141,16 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>634</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>635</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>413</v>
@@ -11188,16 +11181,16 @@
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>415</v>
@@ -11228,16 +11221,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>642</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>643</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>417</v>
@@ -11268,16 +11261,16 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>646</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>647</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>419</v>
@@ -11308,16 +11301,16 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>650</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>651</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>421</v>
@@ -11348,16 +11341,16 @@
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>655</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>423</v>
@@ -11388,16 +11381,16 @@
     </row>
     <row r="16">
       <c r="A16" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>658</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>659</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>425</v>
@@ -11464,53 +11457,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>662</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="H1" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>663</v>
       </c>
-      <c r="H1" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="97" t="s">
         <v>664</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="K1" s="91" t="s">
         <v>665</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="L1" s="98" t="s">
         <v>666</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="M1" s="92" t="s">
+        <v>600</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>667</v>
-      </c>
-      <c r="M1" s="99" t="s">
-        <v>601</v>
-      </c>
-      <c r="N1" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>668</v>
       </c>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -11525,23 +11518,23 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>671</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>672</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>673</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>674</v>
       </c>
       <c r="H2" s="96">
         <v>100.0</v>
@@ -11567,29 +11560,29 @@
     </row>
     <row r="3">
       <c r="A3" s="47" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="C3" s="100" t="s">
         <v>676</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>677</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
-      <c r="K3" s="102">
+      <c r="K3" s="101">
         <v>6.0</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="102" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="13"/>
@@ -11609,32 +11602,32 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>678</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="C4" s="100" t="s">
         <v>679</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="99">
+        <v>229.0</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>680</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="100">
-        <v>229.0</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>681</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
       <c r="K4" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="L4" s="103" t="s">
         <v>682</v>
-      </c>
-      <c r="L4" s="104" t="s">
-        <v>683</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -11653,29 +11646,29 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>684</v>
       </c>
-      <c r="B5" s="105" t="s">
-        <v>685</v>
-      </c>
       <c r="C5" s="46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="102">
+      <c r="K5" s="101">
         <v>6.0</v>
       </c>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="103" t="s">
         <v>91</v>
       </c>
       <c r="M5" s="13"/>
@@ -11695,32 +11688,32 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>686</v>
       </c>
-      <c r="B6" s="105" t="s">
-        <v>687</v>
-      </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="99">
+        <v>229.0</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>680</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="100">
-        <v>229.0</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>681</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="L6" s="103" t="s">
-        <v>688</v>
+        <v>681</v>
+      </c>
+      <c r="L6" s="102" t="s">
+        <v>687</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -11739,20 +11732,20 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>689</v>
       </c>
-      <c r="B7" s="106" t="s">
-        <v>690</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>680</v>
+      <c r="C7" s="100" t="s">
+        <v>679</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
@@ -11761,8 +11754,8 @@
       <c r="K7" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="L7" s="107" t="s">
-        <v>691</v>
+      <c r="L7" s="106" t="s">
+        <v>690</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -11781,23 +11774,23 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>693</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>680</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>694</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>695</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>696</v>
       </c>
       <c r="H8" s="36">
         <v>100.0</v>
@@ -11805,11 +11798,11 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="108"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -11824,30 +11817,30 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="108" t="s">
+        <v>697</v>
+      </c>
+      <c r="B9" s="93" t="s">
         <v>698</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>699</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>677</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112" t="s">
+      <c r="C9" s="109" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>185</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>620</v>
-      </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="112"/>
+        <v>619</v>
+      </c>
+      <c r="G9" s="112"/>
+      <c r="H9" s="111"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="114">
+      <c r="K9" s="113">
         <v>0.0</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="114" t="s">
         <v>361</v>
       </c>
       <c r="M9" s="34"/>
@@ -11866,33 +11859,33 @@
       <c r="Z9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="115" t="s">
+        <v>699</v>
+      </c>
+      <c r="B10" s="93" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>701</v>
-      </c>
       <c r="C10" s="94" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D10" s="94"/>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>185</v>
       </c>
       <c r="F10" s="94" t="s">
+        <v>619</v>
+      </c>
+      <c r="G10" s="115" t="s">
         <v>620</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>621</v>
       </c>
       <c r="H10" s="94"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="L10" s="118" t="s">
-        <v>702</v>
+      <c r="L10" s="117" t="s">
+        <v>701</v>
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
@@ -11910,33 +11903,33 @@
       <c r="Z10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="B11" s="93" t="s">
         <v>703</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="C11" s="94" t="s">
+        <v>676</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="113">
+        <v>229.0</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>620</v>
+      </c>
+      <c r="G11" s="115" t="s">
         <v>704</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>677</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="114">
-        <v>229.0</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>621</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>705</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="116" t="s">
+        <v>705</v>
+      </c>
+      <c r="L11" s="117" t="s">
         <v>706</v>
-      </c>
-      <c r="L11" s="118" t="s">
-        <v>707</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
@@ -11954,33 +11947,33 @@
       <c r="Z11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="115" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" s="93" t="s">
         <v>708</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="C12" s="94" t="s">
+        <v>676</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="113">
+        <v>229.0</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>620</v>
+      </c>
+      <c r="G12" s="115" t="s">
         <v>709</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>677</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="114">
-        <v>229.0</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>621</v>
-      </c>
-      <c r="G12" s="116" t="s">
-        <v>710</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="117" t="s">
-        <v>706</v>
-      </c>
-      <c r="L12" s="118" t="s">
-        <v>711</v>
+      <c r="K12" s="116" t="s">
+        <v>705</v>
+      </c>
+      <c r="L12" s="117" t="s">
+        <v>710</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -11998,956 +11991,956 @@
       <c r="Z12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="118" t="s">
+        <v>711</v>
+      </c>
+      <c r="B13" s="119" t="s">
         <v>712</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="C13" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="G13" s="121" t="s">
         <v>713</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="121">
+      <c r="H13" s="39"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="118" t="s">
+        <v>714</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>715</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="120">
         <v>229.0</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F14" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>716</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="118" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>719</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="118" t="s">
+        <v>720</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>721</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>722</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="123" t="s">
+        <v>281</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="118" t="s">
+        <v>723</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>725</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="118" t="s">
+        <v>726</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>727</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="G18" s="121" t="s">
+        <v>728</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="123" t="s">
+        <v>290</v>
+      </c>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="118" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>731</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="123" t="s">
+        <v>294</v>
+      </c>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="118" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>733</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="G20" s="121" t="s">
+        <v>734</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="123" t="s">
+        <v>298</v>
+      </c>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="118" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>736</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="G13" s="122" t="s">
-        <v>714</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="119" t="s">
-        <v>715</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>716</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="121">
+      <c r="G21" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="M21" s="124"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="118" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>741</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="120">
         <v>229.0</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F22" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="G14" s="122" t="s">
-        <v>717</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="124" t="s">
-        <v>272</v>
-      </c>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="119" t="s">
-        <v>718</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>719</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="121">
+      <c r="G22" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="118" t="s">
+        <v>744</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>745</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="120">
         <v>229.0</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F23" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="G15" s="122" t="s">
-        <v>720</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="119" t="s">
-        <v>721</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>722</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="121">
+      <c r="G23" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="118" t="s">
+        <v>748</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="120">
         <v>229.0</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F24" s="39" t="s">
         <v>642</v>
       </c>
-      <c r="G16" s="122" t="s">
-        <v>723</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="119" t="s">
-        <v>724</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>725</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="121">
+      <c r="G24" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="118" t="s">
+        <v>752</v>
+      </c>
+      <c r="B25" s="119" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="120">
         <v>229.0</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F25" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="G17" s="122" t="s">
-        <v>726</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="124" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="119" t="s">
-        <v>727</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>728</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="121">
+      <c r="G25" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="118" t="s">
+        <v>756</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>757</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="120">
         <v>229.0</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F26" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="G18" s="122" t="s">
-        <v>729</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="123"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="119" t="s">
-        <v>730</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>731</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="121">
+      <c r="G26" s="119" t="s">
+        <v>737</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="118" t="s">
+        <v>760</v>
+      </c>
+      <c r="B27" s="119" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="120">
         <v>229.0</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F27" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="G19" s="122" t="s">
-        <v>732</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="123"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="119" t="s">
-        <v>733</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>734</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>658</v>
-      </c>
-      <c r="G20" s="122" t="s">
-        <v>735</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="121">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="124" t="s">
-        <v>298</v>
-      </c>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="119" t="s">
-        <v>736</v>
-      </c>
-      <c r="B21" s="120" t="s">
+      <c r="G27" s="119" t="s">
         <v>737</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="G21" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="M21" s="125"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="119" t="s">
-        <v>741</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>742</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="G22" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="123"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="119" t="s">
-        <v>745</v>
-      </c>
-      <c r="B23" s="120" t="s">
-        <v>746</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="G23" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="123"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="119" t="s">
-        <v>749</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>750</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>643</v>
-      </c>
-      <c r="G24" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="123"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="119" t="s">
-        <v>753</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>754</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="G25" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="123"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="119" t="s">
-        <v>757</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>758</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="G26" s="120" t="s">
-        <v>738</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="123"/>
-      <c r="Z26" s="123"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="119" t="s">
-        <v>761</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>762</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>655</v>
-      </c>
-      <c r="G27" s="120" t="s">
-        <v>738</v>
-      </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
       <c r="K27" s="39" t="s">
         <v>276</v>
       </c>
       <c r="L27" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="118" t="s">
         <v>763</v>
       </c>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="123"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="123"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="119" t="s">
+      <c r="B28" s="119" t="s">
         <v>764</v>
       </c>
-      <c r="B28" s="120" t="s">
-        <v>765</v>
-      </c>
       <c r="C28" s="39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="121">
+      <c r="E28" s="120">
         <v>229.0</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="G28" s="123" t="s">
-        <v>738</v>
+        <v>658</v>
+      </c>
+      <c r="G28" s="122" t="s">
+        <v>737</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
       <c r="K28" s="39" t="s">
         <v>271</v>
       </c>
       <c r="L28" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="118" t="s">
         <v>766</v>
       </c>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="119" t="s">
+      <c r="B29" s="119" t="s">
         <v>767</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="C29" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="G29" s="122" t="s">
         <v>768</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="121">
+      <c r="H29" s="39"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" s="119" t="s">
+        <v>769</v>
+      </c>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="118" t="s">
+        <v>770</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>771</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="120">
         <v>229.0</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>738</v>
-      </c>
-      <c r="G29" s="123" t="s">
-        <v>769</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="121" t="s">
+      <c r="F30" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="G30" s="122" t="s">
+        <v>768</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="120" t="s">
+        <v>758</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>772</v>
+      </c>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="118" t="s">
+        <v>773</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="120">
+        <v>229.0</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="G31" s="122" t="s">
+        <v>775</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="L29" s="120" t="s">
-        <v>770</v>
-      </c>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="123"/>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="123"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="119" t="s">
-        <v>771</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>772</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="121">
+      <c r="L31" s="125" t="s">
+        <v>776</v>
+      </c>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="118" t="s">
+        <v>777</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>778</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="120">
         <v>229.0</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>738</v>
-      </c>
-      <c r="G30" s="123" t="s">
-        <v>769</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="121" t="s">
-        <v>759</v>
-      </c>
-      <c r="L30" s="120" t="s">
-        <v>773</v>
-      </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="123"/>
-      <c r="Z30" s="123"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="119" t="s">
-        <v>774</v>
-      </c>
-      <c r="B31" s="120" t="s">
+      <c r="F32" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="121">
+      <c r="G32" s="122" t="s">
+        <v>779</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="126" t="s">
+        <v>780</v>
+      </c>
+      <c r="L32" s="123" t="s">
+        <v>781</v>
+      </c>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="118" t="s">
+        <v>782</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>783</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="120">
         <v>229.0</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>769</v>
-      </c>
-      <c r="G31" s="123" t="s">
-        <v>776</v>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="121" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" s="126" t="s">
-        <v>777</v>
-      </c>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="123"/>
-      <c r="Z31" s="123"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="119" t="s">
-        <v>778</v>
-      </c>
-      <c r="B32" s="120" t="s">
-        <v>779</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="G32" s="123" t="s">
+      <c r="F33" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="G33" s="122" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="126" t="s">
         <v>780</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="127" t="s">
-        <v>781</v>
-      </c>
-      <c r="L32" s="124" t="s">
-        <v>782</v>
-      </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="119" t="s">
-        <v>783</v>
-      </c>
-      <c r="B33" s="120" t="s">
-        <v>784</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="121">
-        <v>229.0</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="G33" s="123" t="s">
+      <c r="L33" s="123" t="s">
         <v>785</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="127" t="s">
-        <v>781</v>
-      </c>
-      <c r="L33" s="124" t="s">
-        <v>786</v>
-      </c>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>787</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>788</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>790</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>791</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="128"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P34" s="2" t="b">
         <v>1</v>
@@ -12982,44 +12975,44 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>797</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>798</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>1</v>
@@ -13027,10 +13020,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>799</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>800</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
@@ -13038,37 +13031,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -13100,26 +13093,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1" s="130" t="s">
+      <c r="C1" s="129" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="129" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G1" s="130" t="s">
-        <v>601</v>
+      <c r="G1" s="129" t="s">
+        <v>600</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -13127,84 +13120,84 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="130" t="s">
         <v>809</v>
       </c>
-      <c r="C2" s="131" t="s">
-        <v>810</v>
-      </c>
-      <c r="D2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="D2" s="131"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132" t="s">
         <v>811</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133" t="s">
+      <c r="E3" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G3" s="132"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" ht="137.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="133" t="s">
         <v>816</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="G4" s="132" t="s">
         <v>817</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="132" t="s">
         <v>820</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133" t="s">
+      <c r="E5" s="132" t="s">
         <v>821</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="F5" s="132" t="s">
         <v>822</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="G5" s="132" t="s">
         <v>823</v>
-      </c>
-      <c r="G5" s="133" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="6" ht="120.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="19" t="s">
         <v>826</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="E6" s="135"/>
-      <c r="G6" s="132"/>
+      <c r="E6" s="134"/>
+      <c r="G6" s="131"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13228,16 +13221,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="2">
@@ -13245,24 +13238,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="6">
@@ -13270,34 +13263,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -13320,49 +13313,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="136" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="137" t="s">
+      <c r="C2" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="C2" s="138" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="138" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="139" t="s">
+      <c r="C3" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="C3" s="138" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="139" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="140" t="s">
+      <c r="C4" s="137" t="s">
         <v>849</v>
       </c>
-      <c r="C4" s="138" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="139" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="140" t="s">
+      <c r="C5" s="137" t="s">
         <v>851</v>
-      </c>
-      <c r="C5" s="138" t="s">
-        <v>852</v>
       </c>
     </row>
   </sheetData>
